--- a/Трайл_портал URS.xlsx
+++ b/Трайл_портал URS.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,13 +35,6 @@
     <t>UKAS (IAF)</t>
   </si>
   <si>
-    <t>Сlient name
-Наименование организации (рус)</t>
-  </si>
-  <si>
-    <t>Юр форма</t>
-  </si>
-  <si>
     <t>ООО</t>
   </si>
   <si>
@@ -134,6 +127,13 @@
   </si>
   <si>
     <t>СДС «Оборонсертифика»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Наименование организации</t>
+  </si>
+  <si>
+    <t>Организационно-правовая форма</t>
   </si>
 </sst>
 </file>
@@ -161,7 +161,7 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,19 +176,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,42 +227,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -565,289 +565,289 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="32.77734375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="24.44140625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" style="9" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="9"/>
+    <col min="1" max="1" width="5.44140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="32.77734375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" ht="34.200000000000003" customHeight="1">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="41.4" customHeight="1">
+      <c r="B1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="6" customFormat="1" ht="34.200000000000003" customHeight="1">
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="D2" s="3">
+        <v>474885885</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" ht="34.200000000000003" customHeight="1">
-      <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5">
-        <v>474885885</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="42" customHeight="1">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4">
         <v>6345011371</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>16</v>
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="42" customHeight="1">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
         <v>6345011371</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>18</v>
+      <c r="F4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="42" customHeight="1">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4">
+        <v>7743696750</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6">
-        <v>7743696750</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="43.2">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="B6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4">
         <v>7743696750</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="42" customHeight="1">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
         <v>4632126284</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>24</v>
+      <c r="F7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="42" customHeight="1">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>7813111341</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="6">
-        <v>7813111341</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="42" customHeight="1">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3435900531</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="6">
-        <v>3435900531</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="42" customHeight="1">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4">
         <v>1328028538</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>32</v>
+      <c r="F10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="57" customHeight="1">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1328028538</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1328028538</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="12" t="s">
+      <c r="G11" s="14" t="s">
         <v>31</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="42" customHeight="1">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4">
         <v>7801319747</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>34</v>
+      <c r="F12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -869,6 +869,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="24977fc6-9e70-43ba-817a-62ca61338784" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x0101003477709CEFD7854383EF69099DB8343F" ma:contentTypeVersion="18" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="0c0f354e9dc46c1e5248883c98842500">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="24977fc6-9e70-43ba-817a-62ca61338784" xmlns:ns4="74041a76-0cec-4e97-9598-c3ed51bc1f56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="169007c6b53eca3573e56e9f2c67c230" ns3:_="" ns4:_="">
     <xsd:import namespace="24977fc6-9e70-43ba-817a-62ca61338784"/>
@@ -1121,14 +1129,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="24977fc6-9e70-43ba-817a-62ca61338784" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0FD555C-4760-457D-A1B7-FB05C5D0EBEA}">
   <ds:schemaRefs>
@@ -1138,6 +1138,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4ECF22F-3DA1-48BA-96F4-10792F0819D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="74041a76-0cec-4e97-9598-c3ed51bc1f56"/>
+    <ds:schemaRef ds:uri="24977fc6-9e70-43ba-817a-62ca61338784"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{073B4571-33A3-4481-A4AB-567B31DA9AF1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1154,21 +1171,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4ECF22F-3DA1-48BA-96F4-10792F0819D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="74041a76-0cec-4e97-9598-c3ed51bc1f56"/>
-    <ds:schemaRef ds:uri="24977fc6-9e70-43ba-817a-62ca61338784"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Трайл_портал URS.xlsx
+++ b/Трайл_портал URS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IlyaMatveevskij\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\сайт\сайт2\Сайт на практику\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -129,11 +129,11 @@
     <t>СДС «Оборонсертифика»</t>
   </si>
   <si>
+    <t>Организационно-правовая форма</t>
+  </si>
+  <si>
     <t xml:space="preserve">
-Наименование организации</t>
-  </si>
-  <si>
-    <t>Организационно-правовая форма</t>
+Наименование компании</t>
   </si>
 </sst>
 </file>
@@ -565,7 +565,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -582,10 +582,10 @@
   <sheetData>
     <row r="1" spans="1:7" s="5" customFormat="1" ht="41.4" customHeight="1">
       <c r="B1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>35</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>0</v>
@@ -869,14 +869,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="24977fc6-9e70-43ba-817a-62ca61338784" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x0101003477709CEFD7854383EF69099DB8343F" ma:contentTypeVersion="18" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="0c0f354e9dc46c1e5248883c98842500">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="24977fc6-9e70-43ba-817a-62ca61338784" xmlns:ns4="74041a76-0cec-4e97-9598-c3ed51bc1f56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="169007c6b53eca3573e56e9f2c67c230" ns3:_="" ns4:_="">
     <xsd:import namespace="24977fc6-9e70-43ba-817a-62ca61338784"/>
@@ -1129,6 +1121,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="24977fc6-9e70-43ba-817a-62ca61338784" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0FD555C-4760-457D-A1B7-FB05C5D0EBEA}">
   <ds:schemaRefs>
@@ -1138,23 +1138,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4ECF22F-3DA1-48BA-96F4-10792F0819D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="74041a76-0cec-4e97-9598-c3ed51bc1f56"/>
-    <ds:schemaRef ds:uri="24977fc6-9e70-43ba-817a-62ca61338784"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{073B4571-33A3-4481-A4AB-567B31DA9AF1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1171,4 +1154,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4ECF22F-3DA1-48BA-96F4-10792F0819D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="74041a76-0cec-4e97-9598-c3ed51bc1f56"/>
+    <ds:schemaRef ds:uri="24977fc6-9e70-43ba-817a-62ca61338784"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Трайл_портал URS.xlsx
+++ b/Трайл_портал URS.xlsx
@@ -133,7 +133,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-Наименование компании</t>
+Название компании</t>
   </si>
 </sst>
 </file>
@@ -265,10 +265,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -565,7 +565,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -860,15 +860,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x0101003477709CEFD7854383EF69099DB8343F" ma:contentTypeVersion="18" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="0c0f354e9dc46c1e5248883c98842500">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="24977fc6-9e70-43ba-817a-62ca61338784" xmlns:ns4="74041a76-0cec-4e97-9598-c3ed51bc1f56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="169007c6b53eca3573e56e9f2c67c230" ns3:_="" ns4:_="">
     <xsd:import namespace="24977fc6-9e70-43ba-817a-62ca61338784"/>
@@ -1121,7 +1112,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_activity xmlns="24977fc6-9e70-43ba-817a-62ca61338784" xsi:nil="true"/>
@@ -1129,15 +1120,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0FD555C-4760-457D-A1B7-FB05C5D0EBEA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{073B4571-33A3-4481-A4AB-567B31DA9AF1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1156,7 +1148,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4ECF22F-3DA1-48BA-96F4-10792F0819D6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1171,4 +1163,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0FD555C-4760-457D-A1B7-FB05C5D0EBEA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Трайл_портал URS.xlsx
+++ b/Трайл_портал URS.xlsx
@@ -62,9 +62,6 @@
     <t>ОАО</t>
   </si>
   <si>
-    <t>ПРИМЕР - Булка</t>
-  </si>
-  <si>
     <t>АКОМ им. Н.М.Игнатьева</t>
   </si>
   <si>
@@ -134,6 +131,9 @@
   <si>
     <t xml:space="preserve">
 Название компании</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Булка</t>
   </si>
 </sst>
 </file>
@@ -562,296 +562,266 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" style="7" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" style="8" customWidth="1"/>
     <col min="5" max="5" width="32.77734375" style="7" customWidth="1"/>
     <col min="6" max="6" width="24.44140625" style="7" customWidth="1"/>
     <col min="7" max="7" width="20.109375" style="7" customWidth="1"/>
     <col min="8" max="16384" width="8.77734375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="41.4" customHeight="1">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="41.4" customHeight="1">
+      <c r="A1" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="B1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="6" customFormat="1" ht="34.200000000000003" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>5</v>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>474885885</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="6" customFormat="1" ht="34.200000000000003" customHeight="1">
-      <c r="B2" s="2" t="s">
+    <row r="3" spans="1:6" ht="42" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3">
-        <v>474885885</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4">
+        <v>6345011371</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>6</v>
+      <c r="F3" s="14" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="42" customHeight="1">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4" t="s">
+    <row r="4" spans="1:6" ht="42" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4">
+      <c r="C4" s="4">
         <v>6345011371</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="42" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>7743696750</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="F5" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="54" customHeight="1">
+      <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="42" customHeight="1">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4">
-        <v>6345011371</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="42" customHeight="1">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="C6" s="4">
         <v>7743696750</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="14" t="s">
+      <c r="D6" s="4" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="43.2">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4">
-        <v>7743696750</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="14" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="42" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4632126284</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" ht="42" customHeight="1">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="4" t="s">
+    <row r="8" spans="1:6" ht="42" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4">
+        <v>7813111341</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="42" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="4">
-        <v>4632126284</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="C9" s="4">
+        <v>3435900531</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>22</v>
+      <c r="F9" s="14" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="42" customHeight="1">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="4" t="s">
+    <row r="10" spans="1:6" ht="42" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1328028538</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="57" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1328028538</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="42" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="4">
-        <v>7813111341</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="C12" s="4">
+        <v>7801319747</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="42" customHeight="1">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="4">
-        <v>3435900531</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="42" customHeight="1">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1328028538</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="57" customHeight="1">
-      <c r="A11" s="4">
+      <c r="E12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1328028538</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="14" t="s">
+      <c r="F12" s="14" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="42" customHeight="1">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="4">
-        <v>7801319747</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:D1">
+  <conditionalFormatting sqref="A1:C1">
     <cfRule type="duplicateValues" dxfId="0" priority="3" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1113,20 +1083,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="24977fc6-9e70-43ba-817a-62ca61338784" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="24977fc6-9e70-43ba-817a-62ca61338784" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1149,6 +1119,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0FD555C-4760-457D-A1B7-FB05C5D0EBEA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4ECF22F-3DA1-48BA-96F4-10792F0819D6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1163,12 +1141,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0FD555C-4760-457D-A1B7-FB05C5D0EBEA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Трайл_портал URS.xlsx
+++ b/Трайл_портал URS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>ИНН</t>
   </si>
@@ -65,16 +65,7 @@
     <t>АКОМ им. Н.М.Игнатьева</t>
   </si>
   <si>
-    <t>03.08.2027</t>
-  </si>
-  <si>
     <t>Грасис</t>
-  </si>
-  <si>
-    <t>20.03.2027</t>
-  </si>
-  <si>
-    <t>02.03.2027</t>
   </si>
   <si>
     <t>Федеральная служба по аккредитации
@@ -84,27 +75,15 @@
     <t>ГОСТ Р ИСО 9001-2015</t>
   </si>
   <si>
-    <t>08.04.2027</t>
-  </si>
-  <si>
     <t>Счетмаш</t>
   </si>
   <si>
-    <t>10.12.2025</t>
-  </si>
-  <si>
     <t>Топливные системы</t>
   </si>
   <si>
     <t xml:space="preserve"> Волтайр-Пром</t>
   </si>
   <si>
-    <t>20.12.2025</t>
-  </si>
-  <si>
-    <t>01.11.2026</t>
-  </si>
-  <si>
     <t>Саранский завод Резинотехника (СЗРТ)</t>
   </si>
   <si>
@@ -112,15 +91,6 @@
   </si>
   <si>
     <t>ГOСТ Р ИСО 9001-2015, доп. требования ГОСТ РВ 0015-002-2020</t>
-  </si>
-  <si>
-    <t>19.07.2027</t>
-  </si>
-  <si>
-    <t>24.05.2025</t>
-  </si>
-  <si>
-    <t>23.05.2025</t>
   </si>
   <si>
     <t>СДС «Оборонсертифика»</t>
@@ -140,7 +110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +129,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="5">
@@ -227,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -268,7 +245,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -562,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -580,12 +566,12 @@
     <col min="8" max="16384" width="8.77734375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="41.4" customHeight="1">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="41.4" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>0</v>
@@ -599,10 +585,13 @@
       <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="15" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" s="6" customFormat="1" ht="34.200000000000003" customHeight="1">
+    <row r="2" spans="1:7" s="6" customFormat="1" ht="34.200000000000003" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -619,8 +608,11 @@
       <c r="F2" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="G2" s="16">
+        <v>45802</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="42" customHeight="1">
+    <row r="3" spans="1:7" ht="42" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -636,11 +628,14 @@
       <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>13</v>
+      <c r="F3" s="14">
+        <v>46602</v>
+      </c>
+      <c r="G3" s="17">
+        <v>46602</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="42" customHeight="1">
+    <row r="4" spans="1:7" ht="42" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -656,13 +651,16 @@
       <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>15</v>
+      <c r="F4" s="14">
+        <v>46466</v>
+      </c>
+      <c r="G4" s="17">
+        <v>46466</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="42" customHeight="1">
+    <row r="5" spans="1:7" ht="42" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
@@ -676,13 +674,16 @@
       <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>16</v>
+      <c r="F5" s="14">
+        <v>46448</v>
+      </c>
+      <c r="G5" s="17">
+        <v>46448</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="54" customHeight="1">
+    <row r="6" spans="1:7" ht="54" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>10</v>
@@ -691,18 +692,21 @@
         <v>7743696750</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="F6" s="14">
+        <v>46485</v>
+      </c>
+      <c r="G6" s="17">
+        <v>46485</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="42" customHeight="1">
+    <row r="7" spans="1:7" ht="42" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>10</v>
@@ -716,13 +720,16 @@
       <c r="E7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>21</v>
+      <c r="F7" s="14">
+        <v>46001</v>
+      </c>
+      <c r="G7" s="17">
+        <v>46001</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="42" customHeight="1">
+    <row r="8" spans="1:7" ht="42" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>3</v>
@@ -736,13 +743,16 @@
       <c r="E8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>24</v>
+      <c r="F8" s="14">
+        <v>46011</v>
+      </c>
+      <c r="G8" s="17">
+        <v>46011</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="42" customHeight="1">
+    <row r="9" spans="1:7" ht="42" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>10</v>
@@ -756,13 +766,16 @@
       <c r="E9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>25</v>
+      <c r="F9" s="14">
+        <v>46327</v>
+      </c>
+      <c r="G9" s="17">
+        <v>46327</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="42" customHeight="1">
+    <row r="10" spans="1:7" ht="42" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>11</v>
@@ -776,13 +789,16 @@
       <c r="E10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>29</v>
+      <c r="F10" s="14">
+        <v>46587</v>
+      </c>
+      <c r="G10" s="17">
+        <v>46587</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1">
+    <row r="11" spans="1:7" ht="57" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>11</v>
@@ -791,18 +807,21 @@
         <v>1328028538</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="F11" s="14">
+        <v>45801</v>
+      </c>
+      <c r="G11" s="17">
+        <v>45801</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="42" customHeight="1">
+    <row r="12" spans="1:7" ht="42" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>3</v>
@@ -816,8 +835,11 @@
       <c r="E12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="14" t="s">
-        <v>31</v>
+      <c r="F12" s="14">
+        <v>45800</v>
+      </c>
+      <c r="G12" s="17">
+        <v>45800</v>
       </c>
     </row>
   </sheetData>
@@ -825,7 +847,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="3" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1083,20 +1105,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="24977fc6-9e70-43ba-817a-62ca61338784" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="24977fc6-9e70-43ba-817a-62ca61338784" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1119,26 +1141,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4ECF22F-3DA1-48BA-96F4-10792F0819D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="74041a76-0cec-4e97-9598-c3ed51bc1f56"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="24977fc6-9e70-43ba-817a-62ca61338784"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0FD555C-4760-457D-A1B7-FB05C5D0EBEA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4ECF22F-3DA1-48BA-96F4-10792F0819D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="74041a76-0cec-4e97-9598-c3ed51bc1f56"/>
-    <ds:schemaRef ds:uri="24977fc6-9e70-43ba-817a-62ca61338784"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Трайл_портал URS.xlsx
+++ b/Трайл_портал URS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>ИНН</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>Дата окончания сертификата</t>
-  </si>
-  <si>
-    <t>25.05.2025</t>
   </si>
   <si>
     <t>ISO 9001:2015</t>
@@ -204,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -240,12 +237,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -548,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="B1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -566,284 +557,248 @@
     <col min="8" max="16384" width="8.77734375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="41.4" customHeight="1">
-      <c r="A1" s="11" t="s">
-        <v>24</v>
-      </c>
+    <row r="1" spans="2:7" s="5" customFormat="1" ht="41.4" customHeight="1">
       <c r="B1" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" s="6" customFormat="1" ht="34.200000000000003" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:7" s="6" customFormat="1" ht="34.200000000000003" customHeight="1">
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="3">
         <v>474885885</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="14">
+        <v>45802</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="42" customHeight="1">
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>6345011371</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="15">
+        <v>46602</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="42" customHeight="1">
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4">
+        <v>6345011371</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G4" s="15">
+        <v>46466</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="42" customHeight="1">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4">
+        <v>7743696750</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="16">
-        <v>45802</v>
+      <c r="G5" s="15">
+        <v>46448</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="42" customHeight="1">
-      <c r="A3" s="1" t="s">
+    <row r="6" spans="2:7" ht="54" customHeight="1">
+      <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4">
+        <v>7743696750</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="15">
+        <v>46485</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="42" customHeight="1">
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4632126284</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="15">
+        <v>46001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="42" customHeight="1">
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>7813111341</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="15">
+        <v>46011</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="42" customHeight="1">
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3435900531</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="15">
+        <v>46327</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="42" customHeight="1">
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4">
-        <v>6345011371</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="D10" s="4">
+        <v>1328028538</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="14">
-        <v>46602</v>
-      </c>
-      <c r="G3" s="17">
-        <v>46602</v>
+      <c r="F10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="15">
+        <v>46587</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="42" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="11" spans="2:7" ht="57" customHeight="1">
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4">
-        <v>6345011371</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="D11" s="4">
+        <v>1328028538</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="15">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="42" customHeight="1">
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>7801319747</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="14">
-        <v>46466</v>
-      </c>
-      <c r="G4" s="17">
-        <v>46466</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="42" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4">
-        <v>7743696750</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="14">
-        <v>46448</v>
-      </c>
-      <c r="G5" s="17">
-        <v>46448</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="54" customHeight="1">
-      <c r="A6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4">
-        <v>7743696750</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="14">
-        <v>46485</v>
-      </c>
-      <c r="G6" s="17">
-        <v>46485</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="42" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4">
-        <v>4632126284</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="14">
-        <v>46001</v>
-      </c>
-      <c r="G7" s="17">
-        <v>46001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="42" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4">
-        <v>7813111341</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="14">
-        <v>46011</v>
-      </c>
-      <c r="G8" s="17">
-        <v>46011</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="42" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="4">
-        <v>3435900531</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="14">
-        <v>46327</v>
-      </c>
-      <c r="G9" s="17">
-        <v>46327</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="42" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1328028538</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="14">
-        <v>46587</v>
-      </c>
-      <c r="G10" s="17">
-        <v>46587</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="57" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1328028538</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="14">
-        <v>45801</v>
-      </c>
-      <c r="G11" s="17">
-        <v>45801</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="42" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="4">
-        <v>7801319747</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="14">
-        <v>45800</v>
-      </c>
-      <c r="G12" s="17">
+      <c r="G12" s="15">
         <v>45800</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:C1">
+  <conditionalFormatting sqref="B1:D1">
     <cfRule type="duplicateValues" dxfId="0" priority="3" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1105,20 +1060,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="24977fc6-9e70-43ba-817a-62ca61338784" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="24977fc6-9e70-43ba-817a-62ca61338784" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1141,6 +1096,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0FD555C-4760-457D-A1B7-FB05C5D0EBEA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4ECF22F-3DA1-48BA-96F4-10792F0819D6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -1155,12 +1118,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0FD555C-4760-457D-A1B7-FB05C5D0EBEA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Трайл_портал URS.xlsx
+++ b/Трайл_портал URS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="28">
   <si>
     <t>ИНН</t>
   </si>
@@ -101,6 +101,15 @@
   </si>
   <si>
     <t xml:space="preserve"> Булка</t>
+  </si>
+  <si>
+    <t>Название компании</t>
+  </si>
+  <si>
+    <t>Булка</t>
+  </si>
+  <si>
+    <t>Волтайр-Пром</t>
   </si>
 </sst>
 </file>
@@ -201,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -246,6 +255,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -539,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -557,248 +572,284 @@
     <col min="8" max="16384" width="8.77734375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="5" customFormat="1" ht="41.4" customHeight="1">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="41.4" customHeight="1">
+      <c r="A1" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="B1" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="11" t="s">
         <v>0</v>
       </c>
+      <c r="D1" s="12" t="s">
+        <v>1</v>
+      </c>
       <c r="E1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="13" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="2" spans="2:7" s="6" customFormat="1" ht="34.200000000000003" customHeight="1">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:7" s="6" customFormat="1" ht="34.200000000000003" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3">
+      <c r="C2" s="3">
         <v>474885885</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="14">
+        <v>45802</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="42" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4">
+        <v>6345011371</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="14">
-        <v>45802</v>
+      <c r="F3" s="15">
+        <v>46602</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="42" customHeight="1">
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:7" ht="42" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4">
+      <c r="C4" s="4">
         <v>6345011371</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="15">
+        <v>46466</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="42" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4">
+        <v>7743696750</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="15">
-        <v>46602</v>
+      <c r="F5" s="15">
+        <v>46448</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="42" customHeight="1">
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4" t="s">
+    <row r="6" spans="1:7" ht="54" customHeight="1">
+      <c r="A6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4">
-        <v>6345011371</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="C6" s="4">
+        <v>7743696750</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="15">
+        <v>46485</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="42" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4632126284</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="15">
-        <v>46466</v>
+      <c r="E7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="15">
+        <v>46001</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="42" customHeight="1">
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4" t="s">
+    <row r="8" spans="1:7" ht="42" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4">
+        <v>7813111341</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="15">
+        <v>46011</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="42" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4">
-        <v>7743696750</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="C9" s="4">
+        <v>3435900531</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="15">
-        <v>46448</v>
+      <c r="F9" s="15">
+        <v>46327</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="54" customHeight="1">
-      <c r="B6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4">
-        <v>7743696750</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="15">
-        <v>46485</v>
+    <row r="10" spans="1:7" ht="42" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1328028538</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="15">
+        <v>46587</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="42" customHeight="1">
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4">
-        <v>4632126284</v>
-      </c>
-      <c r="E7" s="4" t="s">
+    <row r="11" spans="1:7" ht="57" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1328028538</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="15">
+        <v>45801</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="42" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4">
+        <v>7801319747</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="15">
-        <v>46001</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="42" customHeight="1">
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="4">
-        <v>7813111341</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="15">
-        <v>46011</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="42" customHeight="1">
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="4">
-        <v>3435900531</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="15">
-        <v>46327</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="42" customHeight="1">
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1328028538</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="15">
-        <v>46587</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="57" customHeight="1">
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1328028538</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="15">
-        <v>45801</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="42" customHeight="1">
-      <c r="B12" s="1" t="s">
+      <c r="E12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="15">
+        <v>45800</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>19</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="4">
-        <v>7801319747</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="15">
-        <v>45800</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:D1">
+  <conditionalFormatting sqref="A1:C1">
     <cfRule type="duplicateValues" dxfId="0" priority="3" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1060,20 +1111,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="24977fc6-9e70-43ba-817a-62ca61338784" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="24977fc6-9e70-43ba-817a-62ca61338784" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1096,14 +1147,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0FD555C-4760-457D-A1B7-FB05C5D0EBEA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4ECF22F-3DA1-48BA-96F4-10792F0819D6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -1118,4 +1161,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0FD555C-4760-457D-A1B7-FB05C5D0EBEA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Трайл_портал URS.xlsx
+++ b/Трайл_портал URS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
   <si>
     <t>ИНН</t>
   </si>
@@ -103,13 +103,7 @@
     <t xml:space="preserve"> Булка</t>
   </si>
   <si>
-    <t>Название компании</t>
-  </si>
-  <si>
-    <t>Булка</t>
-  </si>
-  <si>
-    <t>Волтайр-Пром</t>
+    <t>АРТЕКС</t>
   </si>
 </sst>
 </file>
@@ -210,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -257,10 +251,13 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -289,6 +286,179 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="AutoShape 1" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAIAAAACACAYAAADDPmHLAAAMX0lEQVR4Xu2d61bkMAyD4f0fmqVAmTRjq5+ccpv1nrN/mDRNHFmS3bk8Pz09vbz+L/17eXm/9Pn5+fT6few4cL8umican90rG6vWptajNlO512lwtkP4iGUUn/1vZAy51+EeDYBbOKpA3mcg12cHRA6XjCkDQCF7nlRl7ozWeSxF+NX3mPcXHZZitPm1KmsR1szWSliUAGDc+8bdbzzeALjFgIDjYQGgaCzLAqXrCpGEMgkwCVsQXa+sR4ElkgaHSea5CQM45/fmkWYGcCYgC2oAHE3yQwJgBI2zwcxbRKAhBog49IoGV6sJwl7RXjNGIwnnJPBlDNAAOB6jMr6OSatI7o8DQNWsTrmUZeqYBZVMIQdA9lDZS8QkTlY7YxWLyirAQRApmxTFVYxZA0CzjXN+XyIBJHsct62ccDPAzWA63uZb+gAO1VLTl81JQLIKTKeRtLp3Uv7NEuQYzgZAckKEPpX2O4fglMdOdUPAFwKAXDiPUd0w1ZxxSsWeJ+5QEsonZ/rZCCKDGwBac38S2JXzezOBr4suPw4mNEZYItLnTAdVz0HpPKnNiTklXsI5DLIuZz53bANgiFgDIAgGaT6MqKsgumq+Mmce9QqczHD3fObISafUYdNoLIlhNCZlAHWQ1ddoGTeOU+VXA+AWqQbAZmg+3prWDHBMNVUxfDKAKreI+8/MUYRM0lQhlJ35V9coEtkipvSrDKIzb7R3JVENgIQ5ZgA+PACyDa/S6W8p8c4ONPIdRFeJIVOmMrqeMBthBQJaywQ6ZVImG9vfycLI4+Az902ctTqA/wIArwE4vCmUHDLpTc8IXfUCqqEkNW4yhmR/V4NC7V0Z10qPzo2z9Z7Aq2jHMYwKSE4ZuNo7J9dXqPvXAIC47mxMtXFCMleBjrj3bM1uphBGy2RvlXWIz6iy1tLDoKsOh9TvqyAjJpCUp4QJKmBxzGDkoxoAJoU1A7wHrPTJIOK+VWOJmJuM3lWTR2UnuSeRJGKAnfb1fE+F46gkr+x5jGEDIIh41Zg5oCWSlHmKUQKWAfA6Qfh+gKouEyYmgSLzENc9B4hkMNFTt7lD9qMOnOr+OAfppSw1ghxaHRfWAGBwIKaUSEbWeDt4AOXoM20knTLSBCGbiMaojTlrJs5+9TCy+DrxIQkXeSQlN3dlIKFIJ2DOBhX1NgDYR/htAMwegDRXlMM/0zGV7aQ0I0BwgUSqmiyLnISp6Ph2jXsPZ613HqAB4GWaeziVrqB7jwZAQAGOfl41llRSxA5+KQA2hiFlT1ReOHQeNTEq5o9onCsTWano+hfijWYzWJW9FZN7OIsGwP0nb0hzxQVH5o1+HAC7CcyMndvwII2XrHwjbV6V3YS658wZTRbRZ1UOrjSmXEA5bCOZugGgvx3srKohkkSA/ScAQCoE1XTIkBihuZrNlbLp6s7kaoOK7N1h7MsYoAGgPTvpvRPz9q0A2E2g44SJe1dgIUBy9JhknGr2EAZwvA3RZ3LIq2smJWb6nkCyCVI+KhNJ6lsHbHOJRQ1jA2CjgembvxsA7AseR5B9dYs86qWoqgQxwF4FkMGOwSO1dFSSnWWxkgZSsirDqaTEKV2l6Urepu5IgstsyAQ2APIPrGyxeXgArOggMWwjwAhtORJUmS+i05l93Br/rGcwAsnZH0nOKvulHw6N6Plqn0AkgICrAeD94sgY09M3hZIsiIyQyqbsNQfF5J50jMN+TmkWzZsBuuoBHE8UjW0ADPqumCR7TTnzPwGAvQpwTA5BXWXMVQxA+hOV/sJ2jdMQOqtoFEMpz0RNaXb/gwQ0AO6hQEpY0ulsACRplgW4GSAOmBOXiHmVtJ22giOaqmhlRGmVxgtZD6VWx4xmFYsyb4QlyOFGTEKep6gq6/O1TdZcbWsA3CD2cACYSYjU4cqwONer5owybVkmR8Am86iMm68nayZNJ8JsTixxUs8M0ACIs5vU75UxSgJIg0sBGlUsmQREE2d0p4wHQS3RQYdqSQka7W/Vk2SHoZpprmmL2CnzPARA1ncENQCY9isWJYdSGRMZPjLP5c8CMtpZZYkqI5H1kLKUMJnyB8SRZ9eT2EV7IAnbANg0cHozjGMCiQZnFH1mSCsNKfLsRnYCSYk316DRTdUY5drPgjK+ThDeDHAf0QMAdhNIDoUEnMxzZmSIQaOSoIxdptXElBKWIBlc1e6VsziUpQ2AGwxI507pPHmgloF/tVJQHkOVg6etYNf8EGQSd6qy58wskeaMIzVU54nsZQzpsE517VFMGwDVaH5cF4GNgFdlZaViINsoASBysGSDhCqdecjYjH22taw2eTJ5INSt1qU8ADHbmY8hZvktLrsHcBBJDqMBEP+ETZapbiVFpJaY7fRLoiqGaLuho+8V46IC5dCgGuv4HqXdpAqI4rx6/zmuyAReZU4aAOwXveWhfHx4ZBXQmYRYZaDrThsAfwwArwf29oaQjHZcl7sCAAI2tR7iniNazqiamDciJY45VTJK5nHP6+5ZwKp5awDcIqh8FPE/mZZHoFNeQnkRywQSc0KyyWmYECdbCZTKXCfzVUzIPOpJnyrxrqraGgABEsjBOXJDZILU7aRUHOchiXYqAWphCr2E/khgnJ6DMzbal1P6Ej0mLFON01WerQEw9C7+SwBs+1fZQDLFpaZM20gVEGWVQ9nEQBEgEAYgFYcaozyAMuuKebbXxvM69QANgGM4CWWTHj4Z0wCY0JohuxmAfcN5ZFzTr4tfNTDO0zdV6jnzOCYwapjM6yAlXiR/ToVAjHQUH+Lws8Q4SMDeCSSLzgJEtFsFvAFwTLereikIALMJVIdRAUl0DdlgxkDKcDpAIsaXGD2HKbexK53SaM2rPiH96dirNt8AiL9vUCVTBSQkOUOm3hmAGCn0eNH4uXYHZKRcIuVblLGkrbrCSCpzqz18wqJZPMIysAHgvYPHYbZfDYDMBDrGznXLSjeJB8noTq1ZZTlx1POayb3UPglbKSnI9uNUFdv6rF8Ny0qyBsD7UZMm0QxeB0ik49oAmNLuat9CKo2KnI7LJtp9GQNcbQIzhLvIJE64Iher0rZiGCNJcEwgaV4pIIX3agCwL4KewebQvesFHNZyGEkCgJgcYr5IYByKI8HLDie6NiuftrFXlaXEVBJTSg6XnJtazyWNoIiaSDCJy20AsC+CJmCJwH9aBZCHHeSwSTY6jlgBg2it8iTq+lXfQdiP3COryIiZPIw56wM0AN7DRQI+A4cYvExWq5JkA2A2gRUNJw6/yhJE34muk8aL0lPV68jYaHVdChxE+xEgGwDeh2Ic6WkADNTZDHCEjtNPIOxTbT6l7wkk2kRotbww8FSRNIsqHTOyd8dorlZJVYklhrMBMJykA6iHAwChpIyKSJYr7SQUF12faSyRGzJGrbm6Z9Llmxko2idhNgLo0jeEVBxoA+BYTjoJ9y0AIO6WoN6pl1WLMkOvahbNJWNUE0djHGZT+8teqzadSAZXuqnjetJWsKJcJ5sJ1SqEZ3RIDzczdJExI8z2cACYO4GECZRmZwdeuWZbSyXgChxkf4RyHSYZ7+loN3mo5OwnSoa7ZwFkwsphVq5pAGwEnX+ZNTmr8foGAIxYMwAMVIQoRwKIP3CMHRlL7lkxu1GmZf7jLCuz8jaSkvmo1MO7yxhg9abqoIhpU4HNDqLykEvlgePsydjo4CqyaQNgkxgz4T+HO5miyrdqVjpl1ww6EnC35CSmbSVmas2ENaLEs8rAGSgrmxkNXgPgGFnSwyfVRJbYhxJ4ZwBymDP1koOrsgu5zmmUOBIQ3duJD9F+whYqBhWvFcXg9Ofjo0WsBpMcLhnTALiPkvIbCADEeCgAqOsz87cKKEf/CLDImK8sFc/iRNY3jlHxKf1uYAMgbs5kgSZtZyI7JLnUPNH1DQA3nT7GNwNs7jH4vb2KWYpME6H1zANEGUfW5TCbY4CdsZS6s4qMeIDx2ksYgDQfSKKR2jwKkKpOiL8g1U3Wc1AmOdPywwGI3wYgSTDf40cAEG3oqzKONENogLMsUmWcOlQCEqf8U1UOAQcpFS9hgAbAewQeAgAOVatWqUIo6WKt1PiuW3bce7Z2lQQuLZMzINSPJGjzcttAQtmOVjYA9HN8QuEECGQeaUJ3AJCbnWmmMkQEYMRMkmxSVUDYDUs+g0Dqd5cFCYPMcXT3nJ2l7AQ2AO4ztgFwggonq52xSpLcbMhcd5UlCAsqp//bGOAfxFLdxF9Z+WoAAAAASUVORK5CYII="/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12550140" y="2026920"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="AutoShape 2" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAIAAAACACAYAAADDPmHLAAAMX0lEQVR4Xu2d61bkMAyD4f0fmqVAmTRjq5+ccpv1nrN/mDRNHFmS3bk8Pz09vbz+L/17eXm/9Pn5+fT6few4cL8umican90rG6vWptajNlO512lwtkP4iGUUn/1vZAy51+EeDYBbOKpA3mcg12cHRA6XjCkDQCF7nlRl7ozWeSxF+NX3mPcXHZZitPm1KmsR1szWSliUAGDc+8bdbzzeALjFgIDjYQGgaCzLAqXrCpGEMgkwCVsQXa+sR4ElkgaHSea5CQM45/fmkWYGcCYgC2oAHE3yQwJgBI2zwcxbRKAhBog49IoGV6sJwl7RXjNGIwnnJPBlDNAAOB6jMr6OSatI7o8DQNWsTrmUZeqYBZVMIQdA9lDZS8QkTlY7YxWLyirAQRApmxTFVYxZA0CzjXN+XyIBJHsct62ccDPAzWA63uZb+gAO1VLTl81JQLIKTKeRtLp3Uv7NEuQYzgZAckKEPpX2O4fglMdOdUPAFwKAXDiPUd0w1ZxxSsWeJ+5QEsonZ/rZCCKDGwBac38S2JXzezOBr4suPw4mNEZYItLnTAdVz0HpPKnNiTklXsI5DLIuZz53bANgiFgDIAgGaT6MqKsgumq+Mmce9QqczHD3fObISafUYdNoLIlhNCZlAHWQ1ddoGTeOU+VXA+AWqQbAZmg+3prWDHBMNVUxfDKAKreI+8/MUYRM0lQhlJ35V9coEtkipvSrDKIzb7R3JVENgIQ5ZgA+PACyDa/S6W8p8c4ONPIdRFeJIVOmMrqeMBthBQJaywQ6ZVImG9vfycLI4+Az902ctTqA/wIArwE4vCmUHDLpTc8IXfUCqqEkNW4yhmR/V4NC7V0Z10qPzo2z9Z7Aq2jHMYwKSE4ZuNo7J9dXqPvXAIC47mxMtXFCMleBjrj3bM1uphBGy2RvlXWIz6iy1tLDoKsOh9TvqyAjJpCUp4QJKmBxzGDkoxoAJoU1A7wHrPTJIOK+VWOJmJuM3lWTR2UnuSeRJGKAnfb1fE+F46gkr+x5jGEDIIh41Zg5oCWSlHmKUQKWAfA6Qfh+gKouEyYmgSLzENc9B4hkMNFTt7lD9qMOnOr+OAfppSw1ghxaHRfWAGBwIKaUSEbWeDt4AOXoM20knTLSBCGbiMaojTlrJs5+9TCy+DrxIQkXeSQlN3dlIKFIJ2DOBhX1NgDYR/htAMwegDRXlMM/0zGV7aQ0I0BwgUSqmiyLnISp6Ph2jXsPZ613HqAB4GWaeziVrqB7jwZAQAGOfl41llRSxA5+KQA2hiFlT1ReOHQeNTEq5o9onCsTWano+hfijWYzWJW9FZN7OIsGwP0nb0hzxQVH5o1+HAC7CcyMndvwII2XrHwjbV6V3YS658wZTRbRZ1UOrjSmXEA5bCOZugGgvx3srKohkkSA/ScAQCoE1XTIkBihuZrNlbLp6s7kaoOK7N1h7MsYoAGgPTvpvRPz9q0A2E2g44SJe1dgIUBy9JhknGr2EAZwvA3RZ3LIq2smJWb6nkCyCVI+KhNJ6lsHbHOJRQ1jA2CjgembvxsA7AseR5B9dYs86qWoqgQxwF4FkMGOwSO1dFSSnWWxkgZSsirDqaTEKV2l6Urepu5IgstsyAQ2APIPrGyxeXgArOggMWwjwAhtORJUmS+i05l93Br/rGcwAsnZH0nOKvulHw6N6Plqn0AkgICrAeD94sgY09M3hZIsiIyQyqbsNQfF5J50jMN+TmkWzZsBuuoBHE8UjW0ADPqumCR7TTnzPwGAvQpwTA5BXWXMVQxA+hOV/sJ2jdMQOqtoFEMpz0RNaXb/gwQ0AO6hQEpY0ulsACRplgW4GSAOmBOXiHmVtJ22giOaqmhlRGmVxgtZD6VWx4xmFYsyb4QlyOFGTEKep6gq6/O1TdZcbWsA3CD2cACYSYjU4cqwONer5owybVkmR8Am86iMm68nayZNJ8JsTixxUs8M0ACIs5vU75UxSgJIg0sBGlUsmQREE2d0p4wHQS3RQYdqSQka7W/Vk2SHoZpprmmL2CnzPARA1ncENQCY9isWJYdSGRMZPjLP5c8CMtpZZYkqI5H1kLKUMJnyB8SRZ9eT2EV7IAnbANg0cHozjGMCiQZnFH1mSCsNKfLsRnYCSYk316DRTdUY5drPgjK+ThDeDHAf0QMAdhNIDoUEnMxzZmSIQaOSoIxdptXElBKWIBlc1e6VsziUpQ2AGwxI507pPHmgloF/tVJQHkOVg6etYNf8EGQSd6qy58wskeaMIzVU54nsZQzpsE517VFMGwDVaH5cF4GNgFdlZaViINsoASBysGSDhCqdecjYjH22taw2eTJ5INSt1qU8ADHbmY8hZvktLrsHcBBJDqMBEP+ETZapbiVFpJaY7fRLoiqGaLuho+8V46IC5dCgGuv4HqXdpAqI4rx6/zmuyAReZU4aAOwXveWhfHx4ZBXQmYRYZaDrThsAfwwArwf29oaQjHZcl7sCAAI2tR7iniNazqiamDciJY45VTJK5nHP6+5ZwKp5awDcIqh8FPE/mZZHoFNeQnkRywQSc0KyyWmYECdbCZTKXCfzVUzIPOpJnyrxrqraGgABEsjBOXJDZILU7aRUHOchiXYqAWphCr2E/khgnJ6DMzbal1P6Ej0mLFON01WerQEw9C7+SwBs+1fZQDLFpaZM20gVEGWVQ9nEQBEgEAYgFYcaozyAMuuKebbXxvM69QANgGM4CWWTHj4Z0wCY0JohuxmAfcN5ZFzTr4tfNTDO0zdV6jnzOCYwapjM6yAlXiR/ToVAjHQUH+Lws8Q4SMDeCSSLzgJEtFsFvAFwTLereikIALMJVIdRAUl0DdlgxkDKcDpAIsaXGD2HKbexK53SaM2rPiH96dirNt8AiL9vUCVTBSQkOUOm3hmAGCn0eNH4uXYHZKRcIuVblLGkrbrCSCpzqz18wqJZPMIysAHgvYPHYbZfDYDMBDrGznXLSjeJB8noTq1ZZTlx1POayb3UPglbKSnI9uNUFdv6rF8Ny0qyBsD7UZMm0QxeB0ik49oAmNLuat9CKo2KnI7LJtp9GQNcbQIzhLvIJE64Iher0rZiGCNJcEwgaV4pIIX3agCwL4KewebQvesFHNZyGEkCgJgcYr5IYByKI8HLDie6NiuftrFXlaXEVBJTSg6XnJtazyWNoIiaSDCJy20AsC+CJmCJwH9aBZCHHeSwSTY6jlgBg2it8iTq+lXfQdiP3COryIiZPIw56wM0AN7DRQI+A4cYvExWq5JkA2A2gRUNJw6/yhJE34muk8aL0lPV68jYaHVdChxE+xEgGwDeh2Ic6WkADNTZDHCEjtNPIOxTbT6l7wkk2kRotbww8FSRNIsqHTOyd8dorlZJVYklhrMBMJykA6iHAwChpIyKSJYr7SQUF12faSyRGzJGrbm6Z9Llmxko2idhNgLo0jeEVBxoA+BYTjoJ9y0AIO6WoN6pl1WLMkOvahbNJWNUE0djHGZT+8teqzadSAZXuqnjetJWsKJcJ5sJ1SqEZ3RIDzczdJExI8z2cACYO4GECZRmZwdeuWZbSyXgChxkf4RyHSYZ7+loN3mo5OwnSoa7ZwFkwsphVq5pAGwEnX+ZNTmr8foGAIxYMwAMVIQoRwKIP3CMHRlL7lkxu1GmZf7jLCuz8jaSkvmo1MO7yxhg9abqoIhpU4HNDqLykEvlgePsydjo4CqyaQNgkxgz4T+HO5miyrdqVjpl1ww6EnC35CSmbSVmas2ENaLEs8rAGSgrmxkNXgPgGFnSwyfVRJbYhxJ4ZwBymDP1koOrsgu5zmmUOBIQ3duJD9F+whYqBhWvFcXg9Ofjo0WsBpMcLhnTALiPkvIbCADEeCgAqOsz87cKKEf/CLDImK8sFc/iRNY3jlHxKf1uYAMgbs5kgSZtZyI7JLnUPNH1DQA3nT7GNwNs7jH4vb2KWYpME6H1zANEGUfW5TCbY4CdsZS6s4qMeIDx2ksYgDQfSKKR2jwKkKpOiL8g1U3Wc1AmOdPywwGI3wYgSTDf40cAEG3oqzKONENogLMsUmWcOlQCEqf8U1UOAQcpFS9hgAbAewQeAgAOVatWqUIo6WKt1PiuW3bce7Z2lQQuLZMzINSPJGjzcttAQtmOVjYA9HN8QuEECGQeaUJ3AJCbnWmmMkQEYMRMkmxSVUDYDUs+g0Dqd5cFCYPMcXT3nJ2l7AQ2AO4ztgFwggonq52xSpLcbMhcd5UlCAsqp//bGOAfxFLdxF9Z+WoAAAAASUVORK5CYII="/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12550140" y="2026920"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1027" name="AutoShape 3" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAIAAAACACAYAAADDPmHLAAAMX0lEQVR4Xu2d61bkMAyD4f0fmqVAmTRjq5+ccpv1nrN/mDRNHFmS3bk8Pz09vbz+L/17eXm/9Pn5+fT6few4cL8umican90rG6vWptajNlO512lwtkP4iGUUn/1vZAy51+EeDYBbOKpA3mcg12cHRA6XjCkDQCF7nlRl7ozWeSxF+NX3mPcXHZZitPm1KmsR1szWSliUAGDc+8bdbzzeALjFgIDjYQGgaCzLAqXrCpGEMgkwCVsQXa+sR4ElkgaHSea5CQM45/fmkWYGcCYgC2oAHE3yQwJgBI2zwcxbRKAhBog49IoGV6sJwl7RXjNGIwnnJPBlDNAAOB6jMr6OSatI7o8DQNWsTrmUZeqYBZVMIQdA9lDZS8QkTlY7YxWLyirAQRApmxTFVYxZA0CzjXN+XyIBJHsct62ccDPAzWA63uZb+gAO1VLTl81JQLIKTKeRtLp3Uv7NEuQYzgZAckKEPpX2O4fglMdOdUPAFwKAXDiPUd0w1ZxxSsWeJ+5QEsonZ/rZCCKDGwBac38S2JXzezOBr4suPw4mNEZYItLnTAdVz0HpPKnNiTklXsI5DLIuZz53bANgiFgDIAgGaT6MqKsgumq+Mmce9QqczHD3fObISafUYdNoLIlhNCZlAHWQ1ddoGTeOU+VXA+AWqQbAZmg+3prWDHBMNVUxfDKAKreI+8/MUYRM0lQhlJ35V9coEtkipvSrDKIzb7R3JVENgIQ5ZgA+PACyDa/S6W8p8c4ONPIdRFeJIVOmMrqeMBthBQJaywQ6ZVImG9vfycLI4+Az902ctTqA/wIArwE4vCmUHDLpTc8IXfUCqqEkNW4yhmR/V4NC7V0Z10qPzo2z9Z7Aq2jHMYwKSE4ZuNo7J9dXqPvXAIC47mxMtXFCMleBjrj3bM1uphBGy2RvlXWIz6iy1tLDoKsOh9TvqyAjJpCUp4QJKmBxzGDkoxoAJoU1A7wHrPTJIOK+VWOJmJuM3lWTR2UnuSeRJGKAnfb1fE+F46gkr+x5jGEDIIh41Zg5oCWSlHmKUQKWAfA6Qfh+gKouEyYmgSLzENc9B4hkMNFTt7lD9qMOnOr+OAfppSw1ghxaHRfWAGBwIKaUSEbWeDt4AOXoM20knTLSBCGbiMaojTlrJs5+9TCy+DrxIQkXeSQlN3dlIKFIJ2DOBhX1NgDYR/htAMwegDRXlMM/0zGV7aQ0I0BwgUSqmiyLnISp6Ph2jXsPZ613HqAB4GWaeziVrqB7jwZAQAGOfl41llRSxA5+KQA2hiFlT1ReOHQeNTEq5o9onCsTWano+hfijWYzWJW9FZN7OIsGwP0nb0hzxQVH5o1+HAC7CcyMndvwII2XrHwjbV6V3YS658wZTRbRZ1UOrjSmXEA5bCOZugGgvx3srKohkkSA/ScAQCoE1XTIkBihuZrNlbLp6s7kaoOK7N1h7MsYoAGgPTvpvRPz9q0A2E2g44SJe1dgIUBy9JhknGr2EAZwvA3RZ3LIq2smJWb6nkCyCVI+KhNJ6lsHbHOJRQ1jA2CjgembvxsA7AseR5B9dYs86qWoqgQxwF4FkMGOwSO1dFSSnWWxkgZSsirDqaTEKV2l6Urepu5IgstsyAQ2APIPrGyxeXgArOggMWwjwAhtORJUmS+i05l93Br/rGcwAsnZH0nOKvulHw6N6Plqn0AkgICrAeD94sgY09M3hZIsiIyQyqbsNQfF5J50jMN+TmkWzZsBuuoBHE8UjW0ADPqumCR7TTnzPwGAvQpwTA5BXWXMVQxA+hOV/sJ2jdMQOqtoFEMpz0RNaXb/gwQ0AO6hQEpY0ulsACRplgW4GSAOmBOXiHmVtJ22giOaqmhlRGmVxgtZD6VWx4xmFYsyb4QlyOFGTEKep6gq6/O1TdZcbWsA3CD2cACYSYjU4cqwONer5owybVkmR8Am86iMm68nayZNJ8JsTixxUs8M0ACIs5vU75UxSgJIg0sBGlUsmQREE2d0p4wHQS3RQYdqSQka7W/Vk2SHoZpprmmL2CnzPARA1ncENQCY9isWJYdSGRMZPjLP5c8CMtpZZYkqI5H1kLKUMJnyB8SRZ9eT2EV7IAnbANg0cHozjGMCiQZnFH1mSCsNKfLsRnYCSYk316DRTdUY5drPgjK+ThDeDHAf0QMAdhNIDoUEnMxzZmSIQaOSoIxdptXElBKWIBlc1e6VsziUpQ2AGwxI507pPHmgloF/tVJQHkOVg6etYNf8EGQSd6qy58wskeaMIzVU54nsZQzpsE517VFMGwDVaH5cF4GNgFdlZaViINsoASBysGSDhCqdecjYjH22taw2eTJ5INSt1qU8ADHbmY8hZvktLrsHcBBJDqMBEP+ETZapbiVFpJaY7fRLoiqGaLuho+8V46IC5dCgGuv4HqXdpAqI4rx6/zmuyAReZU4aAOwXveWhfHx4ZBXQmYRYZaDrThsAfwwArwf29oaQjHZcl7sCAAI2tR7iniNazqiamDciJY45VTJK5nHP6+5ZwKp5awDcIqh8FPE/mZZHoFNeQnkRywQSc0KyyWmYECdbCZTKXCfzVUzIPOpJnyrxrqraGgABEsjBOXJDZILU7aRUHOchiXYqAWphCr2E/khgnJ6DMzbal1P6Ej0mLFON01WerQEw9C7+SwBs+1fZQDLFpaZM20gVEGWVQ9nEQBEgEAYgFYcaozyAMuuKebbXxvM69QANgGM4CWWTHj4Z0wCY0JohuxmAfcN5ZFzTr4tfNTDO0zdV6jnzOCYwapjM6yAlXiR/ToVAjHQUH+Lws8Q4SMDeCSSLzgJEtFsFvAFwTLereikIALMJVIdRAUl0DdlgxkDKcDpAIsaXGD2HKbexK53SaM2rPiH96dirNt8AiL9vUCVTBSQkOUOm3hmAGCn0eNH4uXYHZKRcIuVblLGkrbrCSCpzqz18wqJZPMIysAHgvYPHYbZfDYDMBDrGznXLSjeJB8noTq1ZZTlx1POayb3UPglbKSnI9uNUFdv6rF8Ny0qyBsD7UZMm0QxeB0ik49oAmNLuat9CKo2KnI7LJtp9GQNcbQIzhLvIJE64Iher0rZiGCNJcEwgaV4pIIX3agCwL4KewebQvesFHNZyGEkCgJgcYr5IYByKI8HLDie6NiuftrFXlaXEVBJTSg6XnJtazyWNoIiaSDCJy20AsC+CJmCJwH9aBZCHHeSwSTY6jlgBg2it8iTq+lXfQdiP3COryIiZPIw56wM0AN7DRQI+A4cYvExWq5JkA2A2gRUNJw6/yhJE34muk8aL0lPV68jYaHVdChxE+xEgGwDeh2Ic6WkADNTZDHCEjtNPIOxTbT6l7wkk2kRotbww8FSRNIsqHTOyd8dorlZJVYklhrMBMJykA6iHAwChpIyKSJYr7SQUF12faSyRGzJGrbm6Z9Llmxko2idhNgLo0jeEVBxoA+BYTjoJ9y0AIO6WoN6pl1WLMkOvahbNJWNUE0djHGZT+8teqzadSAZXuqnjetJWsKJcJ5sJ1SqEZ3RIDzczdJExI8z2cACYO4GECZRmZwdeuWZbSyXgChxkf4RyHSYZ7+loN3mo5OwnSoa7ZwFkwsphVq5pAGwEnX+ZNTmr8foGAIxYMwAMVIQoRwKIP3CMHRlL7lkxu1GmZf7jLCuz8jaSkvmo1MO7yxhg9abqoIhpU4HNDqLykEvlgePsydjo4CqyaQNgkxgz4T+HO5miyrdqVjpl1ww6EnC35CSmbSVmas2ENaLEs8rAGSgrmxkNXgPgGFnSwyfVRJbYhxJ4ZwBymDP1koOrsgu5zmmUOBIQ3duJD9F+whYqBhWvFcXg9Ofjo0WsBpMcLhnTALiPkvIbCADEeCgAqOsz87cKKEf/CLDImK8sFc/iRNY3jlHxKf1uYAMgbs5kgSZtZyI7JLnUPNH1DQA3nT7GNwNs7jH4vb2KWYpME6H1zANEGUfW5TCbY4CdsZS6s4qMeIDx2ksYgDQfSKKR2jwKkKpOiL8g1U3Wc1AmOdPywwGI3wYgSTDf40cAEG3oqzKONENogLMsUmWcOlQCEqf8U1UOAQcpFS9hgAbAewQeAgAOVatWqUIo6WKt1PiuW3bce7Z2lQQuLZMzINSPJGjzcttAQtmOVjYA9HN8QuEECGQeaUJ3AJCbnWmmMkQEYMRMkmxSVUDYDUs+g0Dqd5cFCYPMcXT3nJ2l7AQ2AO4ztgFwggonq52xSpLcbMhcd5UlCAsqp//bGOAfxFLdxF9Z+WoAAAAASUVORK5CYII="/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12550140" y="2026920"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="AutoShape 4" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAIAAAACACAYAAADDPmHLAAAMX0lEQVR4Xu2d61bkMAyD4f0fmqVAmTRjq5+ccpv1nrN/mDRNHFmS3bk8Pz09vbz+L/17eXm/9Pn5+fT6few4cL8umican90rG6vWptajNlO512lwtkP4iGUUn/1vZAy51+EeDYBbOKpA3mcg12cHRA6XjCkDQCF7nlRl7ozWeSxF+NX3mPcXHZZitPm1KmsR1szWSliUAGDc+8bdbzzeALjFgIDjYQGgaCzLAqXrCpGEMgkwCVsQXa+sR4ElkgaHSea5CQM45/fmkWYGcCYgC2oAHE3yQwJgBI2zwcxbRKAhBog49IoGV6sJwl7RXjNGIwnnJPBlDNAAOB6jMr6OSatI7o8DQNWsTrmUZeqYBZVMIQdA9lDZS8QkTlY7YxWLyirAQRApmxTFVYxZA0CzjXN+XyIBJHsct62ccDPAzWA63uZb+gAO1VLTl81JQLIKTKeRtLp3Uv7NEuQYzgZAckKEPpX2O4fglMdOdUPAFwKAXDiPUd0w1ZxxSsWeJ+5QEsonZ/rZCCKDGwBac38S2JXzezOBr4suPw4mNEZYItLnTAdVz0HpPKnNiTklXsI5DLIuZz53bANgiFgDIAgGaT6MqKsgumq+Mmce9QqczHD3fObISafUYdNoLIlhNCZlAHWQ1ddoGTeOU+VXA+AWqQbAZmg+3prWDHBMNVUxfDKAKreI+8/MUYRM0lQhlJ35V9coEtkipvSrDKIzb7R3JVENgIQ5ZgA+PACyDa/S6W8p8c4ONPIdRFeJIVOmMrqeMBthBQJaywQ6ZVImG9vfycLI4+Az902ctTqA/wIArwE4vCmUHDLpTc8IXfUCqqEkNW4yhmR/V4NC7V0Z10qPzo2z9Z7Aq2jHMYwKSE4ZuNo7J9dXqPvXAIC47mxMtXFCMleBjrj3bM1uphBGy2RvlXWIz6iy1tLDoKsOh9TvqyAjJpCUp4QJKmBxzGDkoxoAJoU1A7wHrPTJIOK+VWOJmJuM3lWTR2UnuSeRJGKAnfb1fE+F46gkr+x5jGEDIIh41Zg5oCWSlHmKUQKWAfA6Qfh+gKouEyYmgSLzENc9B4hkMNFTt7lD9qMOnOr+OAfppSw1ghxaHRfWAGBwIKaUSEbWeDt4AOXoM20knTLSBCGbiMaojTlrJs5+9TCy+DrxIQkXeSQlN3dlIKFIJ2DOBhX1NgDYR/htAMwegDRXlMM/0zGV7aQ0I0BwgUSqmiyLnISp6Ph2jXsPZ613HqAB4GWaeziVrqB7jwZAQAGOfl41llRSxA5+KQA2hiFlT1ReOHQeNTEq5o9onCsTWano+hfijWYzWJW9FZN7OIsGwP0nb0hzxQVH5o1+HAC7CcyMndvwII2XrHwjbV6V3YS658wZTRbRZ1UOrjSmXEA5bCOZugGgvx3srKohkkSA/ScAQCoE1XTIkBihuZrNlbLp6s7kaoOK7N1h7MsYoAGgPTvpvRPz9q0A2E2g44SJe1dgIUBy9JhknGr2EAZwvA3RZ3LIq2smJWb6nkCyCVI+KhNJ6lsHbHOJRQ1jA2CjgembvxsA7AseR5B9dYs86qWoqgQxwF4FkMGOwSO1dFSSnWWxkgZSsirDqaTEKV2l6Urepu5IgstsyAQ2APIPrGyxeXgArOggMWwjwAhtORJUmS+i05l93Br/rGcwAsnZH0nOKvulHw6N6Plqn0AkgICrAeD94sgY09M3hZIsiIyQyqbsNQfF5J50jMN+TmkWzZsBuuoBHE8UjW0ADPqumCR7TTnzPwGAvQpwTA5BXWXMVQxA+hOV/sJ2jdMQOqtoFEMpz0RNaXb/gwQ0AO6hQEpY0ulsACRplgW4GSAOmBOXiHmVtJ22giOaqmhlRGmVxgtZD6VWx4xmFYsyb4QlyOFGTEKep6gq6/O1TdZcbWsA3CD2cACYSYjU4cqwONer5owybVkmR8Am86iMm68nayZNJ8JsTixxUs8M0ACIs5vU75UxSgJIg0sBGlUsmQREE2d0p4wHQS3RQYdqSQka7W/Vk2SHoZpprmmL2CnzPARA1ncENQCY9isWJYdSGRMZPjLP5c8CMtpZZYkqI5H1kLKUMJnyB8SRZ9eT2EV7IAnbANg0cHozjGMCiQZnFH1mSCsNKfLsRnYCSYk316DRTdUY5drPgjK+ThDeDHAf0QMAdhNIDoUEnMxzZmSIQaOSoIxdptXElBKWIBlc1e6VsziUpQ2AGwxI507pPHmgloF/tVJQHkOVg6etYNf8EGQSd6qy58wskeaMIzVU54nsZQzpsE517VFMGwDVaH5cF4GNgFdlZaViINsoASBysGSDhCqdecjYjH22taw2eTJ5INSt1qU8ADHbmY8hZvktLrsHcBBJDqMBEP+ETZapbiVFpJaY7fRLoiqGaLuho+8V46IC5dCgGuv4HqXdpAqI4rx6/zmuyAReZU4aAOwXveWhfHx4ZBXQmYRYZaDrThsAfwwArwf29oaQjHZcl7sCAAI2tR7iniNazqiamDciJY45VTJK5nHP6+5ZwKp5awDcIqh8FPE/mZZHoFNeQnkRywQSc0KyyWmYECdbCZTKXCfzVUzIPOpJnyrxrqraGgABEsjBOXJDZILU7aRUHOchiXYqAWphCr2E/khgnJ6DMzbal1P6Ej0mLFON01WerQEw9C7+SwBs+1fZQDLFpaZM20gVEGWVQ9nEQBEgEAYgFYcaozyAMuuKebbXxvM69QANgGM4CWWTHj4Z0wCY0JohuxmAfcN5ZFzTr4tfNTDO0zdV6jnzOCYwapjM6yAlXiR/ToVAjHQUH+Lws8Q4SMDeCSSLzgJEtFsFvAFwTLereikIALMJVIdRAUl0DdlgxkDKcDpAIsaXGD2HKbexK53SaM2rPiH96dirNt8AiL9vUCVTBSQkOUOm3hmAGCn0eNH4uXYHZKRcIuVblLGkrbrCSCpzqz18wqJZPMIysAHgvYPHYbZfDYDMBDrGznXLSjeJB8noTq1ZZTlx1POayb3UPglbKSnI9uNUFdv6rF8Ny0qyBsD7UZMm0QxeB0ik49oAmNLuat9CKo2KnI7LJtp9GQNcbQIzhLvIJE64Iher0rZiGCNJcEwgaV4pIIX3agCwL4KewebQvesFHNZyGEkCgJgcYr5IYByKI8HLDie6NiuftrFXlaXEVBJTSg6XnJtazyWNoIiaSDCJy20AsC+CJmCJwH9aBZCHHeSwSTY6jlgBg2it8iTq+lXfQdiP3COryIiZPIw56wM0AN7DRQI+A4cYvExWq5JkA2A2gRUNJw6/yhJE34muk8aL0lPV68jYaHVdChxE+xEgGwDeh2Ic6WkADNTZDHCEjtNPIOxTbT6l7wkk2kRotbww8FSRNIsqHTOyd8dorlZJVYklhrMBMJykA6iHAwChpIyKSJYr7SQUF12faSyRGzJGrbm6Z9Llmxko2idhNgLo0jeEVBxoA+BYTjoJ9y0AIO6WoN6pl1WLMkOvahbNJWNUE0djHGZT+8teqzadSAZXuqnjetJWsKJcJ5sJ1SqEZ3RIDzczdJExI8z2cACYO4GECZRmZwdeuWZbSyXgChxkf4RyHSYZ7+loN3mo5OwnSoa7ZwFkwsphVq5pAGwEnX+ZNTmr8foGAIxYMwAMVIQoRwKIP3CMHRlL7lkxu1GmZf7jLCuz8jaSkvmo1MO7yxhg9abqoIhpU4HNDqLykEvlgePsydjo4CqyaQNgkxgz4T+HO5miyrdqVjpl1ww6EnC35CSmbSVmas2ENaLEs8rAGSgrmxkNXgPgGFnSwyfVRJbYhxJ4ZwBymDP1koOrsgu5zmmUOBIQ3duJD9F+whYqBhWvFcXg9Ofjo0WsBpMcLhnTALiPkvIbCADEeCgAqOsz87cKKEf/CLDImK8sFc/iRNY3jlHxKf1uYAMgbs5kgSZtZyI7JLnUPNH1DQA3nT7GNwNs7jH4vb2KWYpME6H1zANEGUfW5TCbY4CdsZS6s4qMeIDx2ksYgDQfSKKR2jwKkKpOiL8g1U3Wc1AmOdPywwGI3wYgSTDf40cAEG3oqzKONENogLMsUmWcOlQCEqf8U1UOAQcpFS9hgAbAewQeAgAOVatWqUIo6WKt1PiuW3bce7Z2lQQuLZMzINSPJGjzcttAQtmOVjYA9HN8QuEECGQeaUJ3AJCbnWmmMkQEYMRMkmxSVUDYDUs+g0Dqd5cFCYPMcXT3nJ2l7AQ2AO4ztgFwggonq52xSpLcbMhcd5UlCAsqp//bGOAfxFLdxF9Z+WoAAAAASUVORK5CYII="/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12550140" y="2026920"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -554,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -568,11 +738,11 @@
     <col min="4" max="4" width="22.33203125" style="8" customWidth="1"/>
     <col min="5" max="5" width="32.77734375" style="7" customWidth="1"/>
     <col min="6" max="6" width="24.44140625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="7" customWidth="1"/>
     <col min="8" max="16384" width="8.77734375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="41.4" customHeight="1">
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="41.4" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>23</v>
       </c>
@@ -591,11 +761,9 @@
       <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>25</v>
-      </c>
+      <c r="G1" s="17"/>
     </row>
-    <row r="2" spans="1:7" s="6" customFormat="1" ht="34.200000000000003" customHeight="1">
+    <row r="2" spans="1:10" s="6" customFormat="1" ht="34.200000000000003" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -614,11 +782,9 @@
       <c r="F2" s="14">
         <v>45802</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>26</v>
-      </c>
+      <c r="G2" s="18"/>
     </row>
-    <row r="3" spans="1:7" ht="42" customHeight="1">
+    <row r="3" spans="1:10" ht="42" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -637,11 +803,9 @@
       <c r="F3" s="15">
         <v>46602</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>11</v>
-      </c>
+      <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" ht="42" customHeight="1">
+    <row r="4" spans="1:10" ht="42" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -660,11 +824,9 @@
       <c r="F4" s="15">
         <v>46466</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>11</v>
-      </c>
+      <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7" ht="42" customHeight="1">
+    <row r="5" spans="1:10" ht="42" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -683,11 +845,10 @@
       <c r="F5" s="15">
         <v>46448</v>
       </c>
-      <c r="G5" s="17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" s="18"/>
+      <c r="J5"/>
     </row>
-    <row r="6" spans="1:7" ht="54" customHeight="1">
+    <row r="6" spans="1:10" ht="54" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
@@ -706,11 +867,9 @@
       <c r="F6" s="15">
         <v>46485</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:7" ht="42" customHeight="1">
+    <row r="7" spans="1:10" ht="42" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -729,11 +888,9 @@
       <c r="F7" s="15">
         <v>46001</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>15</v>
-      </c>
+      <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" ht="42" customHeight="1">
+    <row r="8" spans="1:10" ht="42" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -752,11 +909,9 @@
       <c r="F8" s="15">
         <v>46011</v>
       </c>
-      <c r="G8" s="17" t="s">
-        <v>16</v>
-      </c>
+      <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" ht="42" customHeight="1">
+    <row r="9" spans="1:10" ht="42" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -775,11 +930,9 @@
       <c r="F9" s="15">
         <v>46327</v>
       </c>
-      <c r="G9" s="17" t="s">
-        <v>27</v>
-      </c>
+      <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" ht="42" customHeight="1">
+    <row r="10" spans="1:10" ht="42" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -798,11 +951,9 @@
       <c r="F10" s="15">
         <v>46587</v>
       </c>
-      <c r="G10" s="17" t="s">
-        <v>18</v>
-      </c>
+      <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:7" ht="57" customHeight="1">
+    <row r="11" spans="1:10" ht="57" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -821,11 +972,9 @@
       <c r="F11" s="15">
         <v>45801</v>
       </c>
-      <c r="G11" s="17" t="s">
-        <v>18</v>
-      </c>
+      <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:7" ht="42" customHeight="1">
+    <row r="12" spans="1:10" ht="42" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -844,8 +993,26 @@
       <c r="F12" s="15">
         <v>45800</v>
       </c>
-      <c r="G12" s="17" t="s">
-        <v>19</v>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:10" ht="49.8" customHeight="1">
+      <c r="A13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="16">
+        <v>4705066128</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="15">
+        <v>46527</v>
       </c>
     </row>
   </sheetData>
@@ -854,6 +1021,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1111,20 +1279,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="24977fc6-9e70-43ba-817a-62ca61338784" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="24977fc6-9e70-43ba-817a-62ca61338784" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1147,26 +1315,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4ECF22F-3DA1-48BA-96F4-10792F0819D6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0FD555C-4760-457D-A1B7-FB05C5D0EBEA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="74041a76-0cec-4e97-9598-c3ed51bc1f56"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="24977fc6-9e70-43ba-817a-62ca61338784"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0FD555C-4760-457D-A1B7-FB05C5D0EBEA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4ECF22F-3DA1-48BA-96F4-10792F0819D6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="24977fc6-9e70-43ba-817a-62ca61338784"/>
+    <ds:schemaRef ds:uri="74041a76-0cec-4e97-9598-c3ed51bc1f56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Трайл_портал URS.xlsx
+++ b/Трайл_портал URS.xlsx
@@ -204,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -242,22 +242,19 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -727,7 +724,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -758,10 +755,10 @@
       <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:10" s="6" customFormat="1" ht="34.200000000000003" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -779,10 +776,10 @@
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="17">
         <v>45802</v>
       </c>
-      <c r="G2" s="18"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="42" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -803,7 +800,7 @@
       <c r="F3" s="15">
         <v>46602</v>
       </c>
-      <c r="G3" s="18"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:10" ht="42" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -824,7 +821,7 @@
       <c r="F4" s="15">
         <v>46466</v>
       </c>
-      <c r="G4" s="18"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="42" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -845,7 +842,7 @@
       <c r="F5" s="15">
         <v>46448</v>
       </c>
-      <c r="G5" s="18"/>
+      <c r="G5" s="14"/>
       <c r="J5"/>
     </row>
     <row r="6" spans="1:10" ht="54" customHeight="1">
@@ -867,7 +864,7 @@
       <c r="F6" s="15">
         <v>46485</v>
       </c>
-      <c r="G6" s="18"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:10" ht="42" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -888,7 +885,7 @@
       <c r="F7" s="15">
         <v>46001</v>
       </c>
-      <c r="G7" s="18"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:10" ht="42" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -909,7 +906,7 @@
       <c r="F8" s="15">
         <v>46011</v>
       </c>
-      <c r="G8" s="18"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:10" ht="42" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -930,7 +927,7 @@
       <c r="F9" s="15">
         <v>46327</v>
       </c>
-      <c r="G9" s="18"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:10" ht="42" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -951,7 +948,7 @@
       <c r="F10" s="15">
         <v>46587</v>
       </c>
-      <c r="G10" s="18"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:10" ht="57" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -972,7 +969,7 @@
       <c r="F11" s="15">
         <v>45801</v>
       </c>
-      <c r="G11" s="18"/>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:10" ht="42" customHeight="1">
       <c r="A12" s="1" t="s">
@@ -993,22 +990,22 @@
       <c r="F12" s="15">
         <v>45800</v>
       </c>
-      <c r="G12" s="18"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:10" ht="49.8" customHeight="1">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="4">
         <v>4705066128</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="15">
@@ -1279,20 +1276,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="24977fc6-9e70-43ba-817a-62ca61338784" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="24977fc6-9e70-43ba-817a-62ca61338784" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1315,14 +1312,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0FD555C-4760-457D-A1B7-FB05C5D0EBEA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4ECF22F-3DA1-48BA-96F4-10792F0819D6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -1337,4 +1326,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0FD555C-4760-457D-A1B7-FB05C5D0EBEA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Трайл_портал URS.xlsx
+++ b/Трайл_портал URS.xlsx
@@ -724,7 +724,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
